--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ญ(21).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ญ(21).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D01F96-3A61-A643-BF02-3A97FC66859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{04D01F96-3A61-A643-BF02-3A97FC66859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DDBFB3B-2F2C-4A42-B647-88AD2917F620}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="2730" windowWidth="21120" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>headword</t>
   </si>
@@ -46,12 +46,6 @@
     <t>ญัตติ</t>
   </si>
   <si>
-    <t>ญาณ, ญาณ-</t>
-  </si>
-  <si>
-    <t>ญาติ, ญาติ-</t>
-  </si>
-  <si>
     <t>ญิบ</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>ญี่ปุ่น</t>
   </si>
   <si>
-    <t>เญยธรรม, ไญยธรรม</t>
-  </si>
-  <si>
     <t>ญวนหก</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>ญาติกา</t>
   </si>
   <si>
-    <t>ญาติกาญาติโก, ญาติโกโหติกา</t>
-  </si>
-  <si>
     <t>ญาติดี</t>
   </si>
   <si>
@@ -91,12 +79,6 @@
     <t>ญาติมิตร</t>
   </si>
   <si>
-    <t>ญาติสืบสาโลหิต,ญาติสืบสายโลหิต</t>
-  </si>
-  <si>
-    <t>พยัญชนะตัวที่ ๑๓ เรียกว่า ญอ หญิง เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากนหรือแม่กน เช่น ปัญญา สัญชาติ ผจญ โคโลญ.</t>
-  </si>
-  <si>
     <t>ว. แตกจากหมู่, กระจัดกระจาย, ในคำว่า หนีญญ่ายพ่ายจแจ้น (จารึกสยาม).</t>
   </si>
   <si>
@@ -112,36 +94,21 @@
     <t>น. มาตรการสำคัญอย่างหนึ่งของระบบรัฐสภาที่ฝ่ายนิติบัญญัติใช้ควบคุมและตรวจสอบฝ่ายบริหาร และฝ่ายบริหารใช้ประโยชน์จากฝ่ายนิติบัญญัติในการรับฟังความคิดเห็นจากฝ่ายนิติบัญญัติ.</t>
   </si>
   <si>
-    <t>น. ปัญญาหยั่งรู้หรือกำหนดรู้ที่เกิดจากอำนาจสมาธิ, ความสามารถหยั่งรู้เป็นพิเศษ.; น. ปัญญาหยั่งรู้หรือกำหนดรู้ที่เกิดจากอำนาจสมาธิ, ความสามารถหยั่งรู้เป็นพิเศษ.</t>
-  </si>
-  <si>
     <t>น. ปรัชญาสาขาหนึ่งว่าด้วยบ่อเกิด ลักษณะ หน้าที่ ประเภท ระเบียบวิธี และความสมเหตุสมผลของความรู้.</t>
   </si>
   <si>
     <t>น. ตำราพยากรณ์.</t>
   </si>
   <si>
-    <t>น. คนในวงศ์วานที่ยังนับรู้กันได้ทางเชื้อสายฝ่ายพ่อหรือฝ่ายแม่.; น. คนในวงศ์วานที่ยังนับรู้กันได้ทางเชื้อสายฝ่ายพ่อหรือฝ่ายแม่.</t>
-  </si>
-  <si>
     <t>น. ญาติ.</t>
   </si>
   <si>
-    <t>น. เหล่าเครือญาติ.; น. เหล่าเครือญาติ.</t>
-  </si>
-  <si>
     <t>ก. ทำเป็นดีด้วย, ทำดีด้วย, เช่น เธอไม่ต้องมาญาติดีกับฉัน.</t>
   </si>
   <si>
     <t>น. ญาติในทางธรรม, ผู้มีความสัมพันธ์กันฉันญาติเพราะนับถือศาสนาหรือลัทธิของศาสนาร่วมกัน.</t>
   </si>
   <si>
-    <t>น. ญาติและเพื่อนฝูง.; ก. ร่วมวงเล่นไพ่ตอง เช่น ไปญาติมิตรกัน.</t>
-  </si>
-  <si>
-    <t>น. ญาติที่มีความสัมพันธ์กันทางสายเลือด.; น. ญาติที่มีความสัมพันธ์กันทางสายเลือด.</t>
-  </si>
-  <si>
     <t>ว. สอง เช่น ญิบพัน ว่า สองพัน, หญิบ ก็ใช้.</t>
   </si>
   <si>
@@ -151,9 +118,6 @@
     <t>น. ชื่อประเทศและชนชาติหนึ่งอยู่ในหมู่เกาะทางทิศตะวันออกของประเทศจีน.</t>
   </si>
   <si>
-    <t>น. ธรรมที่ควรรู้.; น. ธรรมที่ควรรู้.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ลูกคำของ "ญวน ๑" คือ ญวนหก </t>
   </si>
   <si>
@@ -199,14 +163,68 @@
     <t>related_word</t>
   </si>
   <si>
-    <t>ดู ใบขนุน (๑).</t>
+    <t>? พยัญชนะตัวที่ ๑๓ เรียกว่า ญอ หญิง เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากนหรือแม่กน เช่น ปัญญา สัญชาติ ผจญ โคโลญ.</t>
+  </si>
+  <si>
+    <t>น. ชื่อปลาทะเลขนาดเล็กถึงขนาดกลางชนิด Lactarius lactarius (Bloch &amp; Schneider) ในวงศ์ Lactariidae ลำตัวกว้าง แบนข้าง หัวโต ปากกว้างและเชิดขึ้น เกล็ดหลุดง่าย มีครีบหลัง ๒ ตอน ตอนที่ ๒ ยาวและมีลักษณะคล้ายครีบก้นซึ่งอยู่ตรงข้ามและยาวกว่าเล็กน้อย ลำตัวสีเงินตลอด ที่ขอบด้านบนของแผ่นปิดเหงือกมีจุดสีดำเด่น ครีบต่าง ๆ สีเหลืองอ่อน พบตลอดชายฝั่ง ขนาดยาวได้ถึง ๔๐ เซนติเมตร, ขนุน ญวน ซับขนุน หรือ สาบขนุน ก็เรียก.; ดู ตาเดียว.</t>
+  </si>
+  <si>
+    <t>น. ปัญญาหยั่งรู้หรือกำหนดรู้ที่เกิดจากอำนาจสมาธิ, ความสามารถหยั่งรู้เป็นพิเศษ.</t>
+  </si>
+  <si>
+    <t>ญาณ-</t>
+  </si>
+  <si>
+    <t>ญาณ</t>
+  </si>
+  <si>
+    <t>ญาติกาญาติโก</t>
+  </si>
+  <si>
+    <t>ญาติ-</t>
+  </si>
+  <si>
+    <t>ญาติ</t>
+  </si>
+  <si>
+    <t>น. คนในวงศ์วานที่ยังนับรู้กันได้ทางเชื้อสายฝ่ายพ่อหรือฝ่ายแม่.</t>
+  </si>
+  <si>
+    <t>ญาติโกโหติกา</t>
+  </si>
+  <si>
+    <t>น. เหล่าเครือญาติ.</t>
+  </si>
+  <si>
+    <t>ญาติสืบสายโลหิต</t>
+  </si>
+  <si>
+    <t>ญาติสืบสาโลหิต</t>
+  </si>
+  <si>
+    <t>น. ญาติที่มีความสัมพันธ์กันทางสายเลือด.</t>
+  </si>
+  <si>
+    <t>น. ญาติและเพื่อนฝูง.</t>
+  </si>
+  <si>
+    <t>ก. ร่วมวงเล่นไพ่ตอง เช่น ไปญาติมิตรกัน.</t>
+  </si>
+  <si>
+    <t>ไญยธรรม</t>
+  </si>
+  <si>
+    <t>เญยธรรม</t>
+  </si>
+  <si>
+    <t>น. ธรรมที่ควรรู้.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,11 +234,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="TH Sarabun Chula"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH Sarabun Chula"/>
     </font>
   </fonts>
   <fills count="3">
@@ -264,17 +285,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,271 +604,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="81" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="81" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="216" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="162" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.6">
+      <c r="A28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
